--- a/prelim/PPI Info (Lebanon).xlsx
+++ b/prelim/PPI Info (Lebanon).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t xml:space="preserve">iso2c</t>
   </si>
@@ -491,6 +491,9 @@
   </si>
   <si>
     <t xml:space="preserve">borders.border</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borders</t>
   </si>
   <si>
     <t xml:space="preserve">national</t>
@@ -50700,9 +50703,11 @@
       <c r="C2" t="s">
         <v>158</v>
       </c>
-      <c r="D2"/>
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" t="n">
         <v>0.25</v>
@@ -50904,9 +50909,11 @@
       <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="D3"/>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -51106,13 +51113,13 @@
         <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -51312,13 +51319,13 @@
         <v>157</v>
       </c>
       <c r="C5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
         <v>161</v>
-      </c>
-      <c r="D5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" t="s">
-        <v>160</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -51518,13 +51525,13 @@
         <v>157</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -51724,13 +51731,13 @@
         <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -51930,13 +51937,13 @@
         <v>157</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -52136,13 +52143,13 @@
         <v>157</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E9" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -52342,13 +52349,13 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -52548,13 +52555,13 @@
         <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -52754,13 +52761,13 @@
         <v>157</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -52960,13 +52967,13 @@
         <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -53166,13 +53173,13 @@
         <v>157</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -53372,13 +53379,13 @@
         <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -53578,13 +53585,13 @@
         <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -53784,13 +53791,13 @@
         <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -53990,13 +53997,13 @@
         <v>157</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -54196,13 +54203,13 @@
         <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -54402,13 +54409,13 @@
         <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -54608,13 +54615,13 @@
         <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -54814,13 +54821,13 @@
         <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F22" t="n">
         <v>0.875</v>
@@ -55020,13 +55027,13 @@
         <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -55226,13 +55233,13 @@
         <v>157</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -55432,13 +55439,13 @@
         <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -55638,13 +55645,13 @@
         <v>157</v>
       </c>
       <c r="C26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -55844,13 +55851,13 @@
         <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -56050,13 +56057,13 @@
         <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -56256,13 +56263,13 @@
         <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E29" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -56462,13 +56469,13 @@
         <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -56668,13 +56675,13 @@
         <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
